--- a/NUmpTemperature2024.xlsx
+++ b/NUmpTemperature2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Science Program\7. Data\Temperature Data\N Umpqua Temp Data\Raw Data Exports\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NUmpqua_TempAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A13E78-1945-4329-B39B-6FB7BC42D3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF42D9B-6D24-4507-ADD8-96862C3736E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F72221AA-F1B5-4052-B3C7-901587F51133}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>Water/Air</t>
-  </si>
-  <si>
     <t>DateIn</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>FishLower</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>FishUpper</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>CopelandLower</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>BigBend</t>
   </si>
   <si>
@@ -111,6 +102,15 @@
   </si>
   <si>
     <t>Long</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Air</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,22 +515,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -538,10 +538,10 @@
         <v>21679163</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1">
         <v>45462</v>
@@ -561,10 +561,10 @@
         <v>21464208</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="3">
         <v>45462</v>
@@ -573,7 +573,7 @@
         <v>45556</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>43.229488199999999</v>
@@ -587,10 +587,10 @@
         <v>21679182</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>45462</v>
@@ -610,10 +610,10 @@
         <v>21433138</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>45462</v>
@@ -633,10 +633,10 @@
         <v>21679171</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>45462</v>
@@ -656,10 +656,10 @@
         <v>21679180</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>45462</v>
@@ -679,10 +679,10 @@
         <v>21679175</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>45462</v>
@@ -702,10 +702,10 @@
         <v>21679177</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>45462</v>
@@ -725,10 +725,10 @@
         <v>21679176</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1">
         <v>45462</v>
@@ -748,10 +748,10 @@
         <v>21679164</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>45462</v>
@@ -760,7 +760,7 @@
         <v>45555</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>43.3497451</v>
@@ -774,10 +774,10 @@
         <v>21433141</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>45462</v>
@@ -797,10 +797,10 @@
         <v>21679162</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1">
         <v>45462</v>
@@ -820,10 +820,10 @@
         <v>21433145</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1">
         <v>45462</v>

--- a/NUmpTemperature2024.xlsx
+++ b/NUmpTemperature2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NUmpqua_TempAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF42D9B-6D24-4507-ADD8-96862C3736E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B911F31-536C-43FD-9E08-C5EE47322490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F72221AA-F1B5-4052-B3C7-901587F51133}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>LoggerID</t>
   </si>
@@ -111,6 +111,24 @@
   </si>
   <si>
     <t>Air</t>
+  </si>
+  <si>
+    <t>USGS_14316500</t>
+  </si>
+  <si>
+    <t>USGS Tokatee Falls</t>
+  </si>
+  <si>
+    <t>USGS Steamboat Cr.</t>
+  </si>
+  <si>
+    <t>USGS Idleyld Park</t>
+  </si>
+  <si>
+    <t>USGS_14316700</t>
+  </si>
+  <si>
+    <t>USGS_14317450</t>
   </si>
 </sst>
 </file>
@@ -153,11 +171,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,15 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF30E66-90DD-41AB-8C28-5BA8DC2687DA}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -508,7 +532,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -534,7 +558,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>21679163</v>
       </c>
       <c r="B2" t="s">
@@ -557,7 +581,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>21464208</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -583,7 +607,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>21679182</v>
       </c>
       <c r="B4" t="s">
@@ -606,7 +630,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>21433138</v>
       </c>
       <c r="B5" t="s">
@@ -629,7 +653,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>21679171</v>
       </c>
       <c r="B6" t="s">
@@ -652,7 +676,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>21679180</v>
       </c>
       <c r="B7" t="s">
@@ -675,7 +699,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>21679175</v>
       </c>
       <c r="B8" t="s">
@@ -698,7 +722,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>21679177</v>
       </c>
       <c r="B9" t="s">
@@ -721,7 +745,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>21679176</v>
       </c>
       <c r="B10" t="s">
@@ -744,7 +768,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>21679164</v>
       </c>
       <c r="B11" t="s">
@@ -770,7 +794,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>21433141</v>
       </c>
       <c r="B12" t="s">
@@ -793,7 +817,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>21679162</v>
       </c>
       <c r="B13" t="s">
@@ -816,7 +840,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>21433145</v>
       </c>
       <c r="B14" t="s">
@@ -836,6 +860,75 @@
       </c>
       <c r="H14">
         <v>-122.74119958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45463</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45550</v>
+      </c>
+      <c r="G15">
+        <v>43.266767369999997</v>
+      </c>
+      <c r="H15">
+        <v>-122.51983781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45463</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45550</v>
+      </c>
+      <c r="G16">
+        <v>43.349829649999997</v>
+      </c>
+      <c r="H16">
+        <v>-122.72889548000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45463</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45550</v>
+      </c>
+      <c r="G17">
+        <v>43.33228416</v>
+      </c>
+      <c r="H17">
+        <v>-123.00275148999999</v>
       </c>
     </row>
   </sheetData>

--- a/NUmpTemperature2024.xlsx
+++ b/NUmpTemperature2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NUmpqua_TempAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B911F31-536C-43FD-9E08-C5EE47322490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EDFFAE-41DD-4ED4-91B3-F222BC283673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F72221AA-F1B5-4052-B3C7-901587F51133}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +529,7 @@
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -810,10 +811,10 @@
         <v>45555</v>
       </c>
       <c r="G12">
-        <v>43.345017509999998</v>
+        <v>43.344257839999997</v>
       </c>
       <c r="H12">
-        <v>-122.73654872</v>
+        <v>-122.73603328</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">

--- a/NUmpTemperature2024.xlsx
+++ b/NUmpTemperature2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NUmpqua_TempAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EDFFAE-41DD-4ED4-91B3-F222BC283673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2107C9-73CD-4C8A-ACE6-13A89BEAEAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F72221AA-F1B5-4052-B3C7-901587F51133}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F72221AA-F1B5-4052-B3C7-901587F51133}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>LoggerID</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>USGS_14317450</t>
+  </si>
+  <si>
+    <t>Elev</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF30E66-90DD-41AB-8C28-5BA8DC2687DA}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +535,7 @@
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -557,8 +560,11 @@
       <c r="H1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>21679163</v>
       </c>
@@ -580,8 +586,11 @@
       <c r="H2">
         <v>-122.47064027</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>21464208</v>
       </c>
@@ -606,8 +615,11 @@
       <c r="H3">
         <v>-122.44753867</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>21679182</v>
       </c>
@@ -629,8 +641,11 @@
       <c r="H4">
         <v>-122.51950471000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>21433138</v>
       </c>
@@ -652,8 +667,11 @@
       <c r="H5">
         <v>-122.54551127000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>21679171</v>
       </c>
@@ -675,8 +693,11 @@
       <c r="H6">
         <v>-122.60083063</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>21679180</v>
       </c>
@@ -698,8 +719,11 @@
       <c r="H7">
         <v>-122.60048494999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>21679175</v>
       </c>
@@ -721,8 +745,11 @@
       <c r="H8">
         <v>-122.60367005000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>21679177</v>
       </c>
@@ -744,8 +771,11 @@
       <c r="H9">
         <v>-122.7799297</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>21679176</v>
       </c>
@@ -767,8 +797,11 @@
       <c r="H10">
         <v>-122.72988660999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>21679164</v>
       </c>
@@ -793,8 +826,11 @@
       <c r="H11">
         <v>-122.72923539999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>21433141</v>
       </c>
@@ -816,8 +852,11 @@
       <c r="H12">
         <v>-122.73603328</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>21679162</v>
       </c>
@@ -839,8 +878,11 @@
       <c r="H13">
         <v>-122.73678676</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>21433145</v>
       </c>
@@ -862,8 +904,11 @@
       <c r="H14">
         <v>-122.74119958</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -885,8 +930,11 @@
       <c r="H15">
         <v>-122.51983781</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -908,8 +956,11 @@
       <c r="H16">
         <v>-122.72889548000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -930,6 +981,9 @@
       </c>
       <c r="H17">
         <v>-123.00275148999999</v>
+      </c>
+      <c r="I17">
+        <v>774</v>
       </c>
     </row>
   </sheetData>

--- a/NUmpTemperature2024.xlsx
+++ b/NUmpTemperature2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NUmpqua_TempAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2107C9-73CD-4C8A-ACE6-13A89BEAEAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C3D348-5F8D-4774-81E9-850CC9A2F0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F72221AA-F1B5-4052-B3C7-901587F51133}"/>
+    <workbookView xWindow="3810" yWindow="2115" windowWidth="21600" windowHeight="10920" xr2:uid="{F72221AA-F1B5-4052-B3C7-901587F51133}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <t>USGS_14317450</t>
   </si>
   <si>
-    <t>Elev</t>
+    <t>Elev_ft</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NUmpTemperature2024.xlsx
+++ b/NUmpTemperature2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\NUmpqua_TempAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C3D348-5F8D-4774-81E9-850CC9A2F0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D9FED6-6B7A-46C8-99D3-62F5B74C5E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2115" windowWidth="21600" windowHeight="10920" xr2:uid="{F72221AA-F1B5-4052-B3C7-901587F51133}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F72221AA-F1B5-4052-B3C7-901587F51133}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>LoggerID</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Elev_ft</t>
+  </si>
+  <si>
+    <t>Dist_from_airlog_km</t>
   </si>
 </sst>
 </file>
@@ -519,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF30E66-90DD-41AB-8C28-5BA8DC2687DA}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,9 +536,10 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -563,8 +567,11 @@
       <c r="I1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>21679163</v>
       </c>
@@ -589,8 +596,11 @@
       <c r="I2">
         <v>1880</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>21464208</v>
       </c>
@@ -618,8 +628,11 @@
       <c r="I3">
         <v>2879</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>26.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>21679182</v>
       </c>
@@ -644,8 +657,11 @@
       <c r="I4">
         <v>1925</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>19.559999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>21433138</v>
       </c>
@@ -670,8 +686,11 @@
       <c r="I5">
         <v>1586</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>21679171</v>
       </c>
@@ -696,8 +715,11 @@
       <c r="I6">
         <v>1682</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>21679180</v>
       </c>
@@ -722,8 +744,11 @@
       <c r="I7">
         <v>1640</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>14.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>21679175</v>
       </c>
@@ -748,8 +773,11 @@
       <c r="I8">
         <v>1638</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>13.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>21679177</v>
       </c>
@@ -774,8 +802,11 @@
       <c r="I9">
         <v>1553</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>21679176</v>
       </c>
@@ -800,8 +831,11 @@
       <c r="I10">
         <v>1151</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>21679164</v>
       </c>
@@ -829,8 +863,11 @@
       <c r="I11">
         <v>1132</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>21433141</v>
       </c>
@@ -855,8 +892,11 @@
       <c r="I12">
         <v>1105</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>21679162</v>
       </c>
@@ -881,8 +921,11 @@
       <c r="I13">
         <v>1120</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>21433145</v>
       </c>
@@ -907,8 +950,11 @@
       <c r="I14">
         <v>1100</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -933,8 +979,11 @@
       <c r="I15">
         <v>1586</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -959,8 +1008,11 @@
       <c r="I16">
         <v>1132</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -984,6 +1036,9 @@
       </c>
       <c r="I17">
         <v>774</v>
+      </c>
+      <c r="J17">
+        <v>21.66</v>
       </c>
     </row>
   </sheetData>
